--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_10_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_10_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48394.90493091784</v>
+        <v>9630586.081252649</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48394.90493091784</v>
+        <v>9630586.081252649</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2262.939762247198</v>
+        <v>135776.3857348319</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2262.939762247198</v>
+        <v>135776.3857348319</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112265506.159549</v>
+        <v>45397116.48066305</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9161.939010910259</v>
+        <v>1004983.832136867</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17733.73163602332</v>
+        <v>1918004.500008757</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26305.52426113638</v>
+        <v>2831025.167880647</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35253.24646461861</v>
+        <v>3757784.019091477</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44132.07169840386</v>
+        <v>4670832.373332608</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53010.8969321891</v>
+        <v>5583880.727573738</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61889.72216597434</v>
+        <v>6496929.081814867</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70768.54739975957</v>
+        <v>7409977.436055994</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>80095.67704790339</v>
+        <v>8317090.240889129</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>89353.90972635023</v>
+        <v>9210492.548752569</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>98432.53617225667</v>
+        <v>10123540.9029937</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>107242.4644363449</v>
+        <v>11022878.76026515</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>116121.2896701302</v>
+        <v>11935927.11450628</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>125000.1149039154</v>
+        <v>12848975.46874742</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>133878.9401377006</v>
+        <v>13762023.82298856</v>
       </c>
     </row>
   </sheetData>
